--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CincoSeis-PC\Documents\Dynastine_notes\Dynastine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95965E14-CE72-4669-8CF0-D5FDAB0E21DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA155A92-D93F-469F-BE74-93DE7A0FF4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="14400" windowHeight="8235" xr2:uid="{F8253CD8-D7C0-4C5E-90CE-7031244305EF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t xml:space="preserve">BALEROS </t>
   </si>
@@ -50,9 +50,6 @@
     <t>GALLITO</t>
   </si>
   <si>
-    <t xml:space="preserve">TABLAS </t>
-  </si>
-  <si>
     <t>DOS-GUERREROS</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>Visita Charly</t>
+  </si>
+  <si>
+    <t>Tablas</t>
   </si>
 </sst>
 </file>
@@ -146,8 +146,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85FE38CF-600A-4B48-9939-CE65CCE5143C}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,120 +502,137 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
       <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>14</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>15</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>16</v>
-      </c>
-      <c r="M3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>4</v>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B9:B10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>